--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1992.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1992.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.010*"foreign" + 0.008*"bank" + 0.007*"may" + 0.006*"exchange" + 0.005*"import" + 0.005*"export" + 0.004*"rate" + 0.003*"payment" + 0.003*"currency" + 0.003*"account"</t>
-  </si>
-  <si>
-    <t>0.001*"bank" + 0.001*"exchange" + 0.001*"foreign" + 0.001*"import" + 0.001*"may" + 0.001*"currency" + 0.001*"export" + 0.001*"account" + 0.001*"percent" + 0.001*"payment"</t>
-  </si>
-  <si>
-    <t>0.022*"foreign" + 0.018*"bank" + 0.017*"exchange" + 0.016*"import" + 0.014*"may" + 0.012*"currency" + 0.011*"export" + 0.010*"account" + 0.009*"rate" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.004*"foreign" + 0.003*"bank" + 0.003*"export" + 0.003*"may" + 0.002*"import" + 0.002*"exchange" + 0.002*"percent" + 0.002*"rate" + 0.002*"currency" + 0.001*"country"</t>
-  </si>
-  <si>
-    <t>0.001*"bank" + 0.001*"foreign" + 0.001*"exchange" + 0.001*"may" + 0.001*"import" + 0.001*"export" + 0.001*"currency" + 0.001*"percent" + 0.001*"payment" + 0.001*"account"</t>
+    <t>0.045*"may" + 0.043*"foreign" + 0.042*"currency" + 0.039*"account" + 0.023*"resident" + 0.022*"nonresident" + 0.020*"exchange" + 0.020*"abroad" + 0.015*"dollar" + 0.013*"bank"</t>
+  </si>
+  <si>
+    <t>0.079*"import" + 0.045*"export" + 0.030*"percent" + 0.019*"license" + 0.019*"good" + 0.017*"product" + 0.016*"tax" + 0.014*"custom" + 0.014*"duty" + 0.013*"subject"</t>
+  </si>
+  <si>
+    <t>0.026*"investment" + 0.023*"control" + 0.021*"foreign" + 0.020*"capital" + 0.018*"payment" + 0.015*"invisibles" + 0.014*"approval" + 0.012*"exchange" + 0.011*"require" + 0.010*"country"</t>
+  </si>
+  <si>
+    <t>0.022*"gold" + 0.017*"must" + 0.016*"per" + 0.015*"amount" + 0.015*"bank" + 0.013*"note" + 0.013*"december" + 0.013*"may" + 0.011*"day" + 0.010*"coin"</t>
+  </si>
+  <si>
+    <t>0.054*"bank" + 0.042*"exchange" + 0.035*"rate" + 0.023*"foreign" + 0.021*"central" + 0.019*"fund" + 0.017*"international" + 0.016*"monetary" + 0.014*"market" + 0.014*"commercial"</t>
   </si>
 </sst>
 </file>
